--- a/excel/Phy Request 2020 01 19.xlsx
+++ b/excel/Phy Request 2020 01 19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Item Name</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>fgjh</t>
+  </si>
+  <si>
+    <t>glass slab</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>wer</t>
   </si>
   <si>
     <t>Total Amount</t>
@@ -395,15 +404,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="5.855713" bestFit="true" customWidth="true" style="0"/>
@@ -452,12 +461,33 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="E3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>22.0</v>
+      </c>
       <c r="F3">
-        <f>sum(F2:F2)</f>
-        <v>296478</v>
+        <f>C3*E3</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f>sum(F2:F3)</f>
+        <v>296918</v>
       </c>
     </row>
   </sheetData>
